--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -103,12 +103,6 @@
 Répétez les instructions des cellules A8 et A9 chaque fois que c’est nécessaire.</t>
   </si>
   <si>
-    <t>Nom de la société</t>
-  </si>
-  <si>
-    <t>Chef de projet</t>
-  </si>
-  <si>
     <t>TÂCHE</t>
   </si>
   <si>
@@ -248,6 +242,15 @@
   </si>
   <si>
     <t>Fin du projet :</t>
+  </si>
+  <si>
+    <t>ProtaCorp</t>
+  </si>
+  <si>
+    <t>M.Rivierre</t>
+  </si>
+  <si>
+    <t>Devis</t>
   </si>
 </sst>
 </file>
@@ -1194,6 +1197,13 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1206,13 +1216,6 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1519,7 +1522,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1534,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1809,7 +1812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1820,11 +1823,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BL28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -1849,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1857,7 +1860,7 @@
       <c r="F1" s="26"/>
       <c r="H1" s="2"/>
       <c r="I1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1">
@@ -1865,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1">
@@ -1876,130 +1879,130 @@
         <v>2</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="65">
+        <v>57</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="68">
         <v>44473</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="B4" s="44"/>
-      <c r="C4" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="65">
+      <c r="C4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="68">
         <v>44484</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="67"/>
+      <c r="C5" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="63"/>
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="65">
         <f>I6</f>
         <v>44473</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="62">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65">
         <f>P6</f>
         <v>44480</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="62">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="65">
         <f>W6</f>
         <v>44487</v>
       </c>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="62">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="65">
         <f>AD6</f>
         <v>44494</v>
       </c>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="62">
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="65">
         <f>AK6</f>
         <v>44501</v>
       </c>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="62">
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="65">
         <f>AR6</f>
         <v>44508</v>
       </c>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="62">
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="65">
         <f>AY6</f>
         <v>44515</v>
       </c>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="62">
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="67"/>
+      <c r="BF5" s="65">
         <f>BF6</f>
         <v>44522</v>
       </c>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="64"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="67"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
       <c r="I6" s="57">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>44473</v>
@@ -2230,23 +2233,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" ref="I7:AN7" si="3">LEFT(TEXT(I6,"jjj"),1)</f>
@@ -2545,7 +2548,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="15"/>
@@ -2553,7 +2556,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="str">
-        <f t="shared" ref="H9:H24" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H9:H25" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I9" s="24"/>
@@ -2618,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -2699,10 +2702,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="38"/>
       <c r="B11" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -2775,31 +2778,26 @@
       <c r="BL11" s="24"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A12" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="38"/>
       <c r="B12" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="16">
         <v>1</v>
       </c>
       <c r="E12" s="60">
-        <f>Début_Projet</f>
-        <v>44473</v>
+        <f>E4</f>
+        <v>44484</v>
       </c>
       <c r="F12" s="60">
-        <f>E12+4</f>
-        <v>44477</v>
+        <f>E4</f>
+        <v>44484</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="13">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -2812,8 +2810,8 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
@@ -2858,12 +2856,14 @@
       <c r="BL12" s="24"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="49" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
@@ -2873,11 +2873,14 @@
         <v>44473</v>
       </c>
       <c r="F13" s="60">
-        <f>E13+3</f>
-        <v>44476</v>
+        <f>E13+4</f>
+        <v>44477</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -2938,10 +2941,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="38"/>
       <c r="B14" s="49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="16">
         <v>1</v>
@@ -2951,8 +2954,8 @@
         <v>44473</v>
       </c>
       <c r="F14" s="60">
-        <f>Début_Projet+7</f>
-        <v>44480</v>
+        <f>E14+3</f>
+        <v>44476</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -3014,19 +3017,26 @@
       <c r="BL14" s="24"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="60">
+        <f>Début_Projet</f>
+        <v>44473</v>
+      </c>
+      <c r="F15" s="60">
+        <f>Début_Projet+7</f>
+        <v>44480</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -3039,8 +3049,8 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
@@ -3086,27 +3096,17 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="37"/>
-      <c r="B16" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="61">
-        <f>Début_Projet</f>
-        <v>44473</v>
-      </c>
-      <c r="F16" s="61">
-        <f>E16+4</f>
-        <v>44477</v>
-      </c>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13">
+      <c r="H16" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -3124,7 +3124,7 @@
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
+      <c r="Y16" s="24"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
       <c r="AB16" s="24"/>
@@ -3168,10 +3168,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="37"/>
       <c r="B17" s="50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
@@ -3181,13 +3181,13 @@
         <v>44473</v>
       </c>
       <c r="F17" s="61">
-        <f>E17+5</f>
-        <v>44478</v>
+        <f>E17+4</f>
+        <v>44477</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -3205,7 +3205,7 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="Y17" s="25"/>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
@@ -3247,14 +3247,12 @@
       <c r="BL17" s="24"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="38" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="37"/>
       <c r="B18" s="50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -3264,13 +3262,13 @@
         <v>44473</v>
       </c>
       <c r="F18" s="61">
-        <f>E18+3</f>
-        <v>44476</v>
+        <f>E18+5</f>
+        <v>44478</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -3330,12 +3328,14 @@
       <c r="BL18" s="24"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="38" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="50" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
@@ -3413,22 +3413,27 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="38"/>
       <c r="B20" s="50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="61">
-        <v>44475</v>
+        <f>Début_Projet</f>
+        <v>44473</v>
       </c>
       <c r="F20" s="61">
+        <f>E20+3</f>
         <v>44476</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -3489,19 +3494,19 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="38"/>
       <c r="B21" s="50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
       </c>
       <c r="E21" s="61">
+        <v>44475</v>
+      </c>
+      <c r="F21" s="61">
         <v>44476</v>
-      </c>
-      <c r="F21" s="61">
-        <v>44484</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3565,10 +3570,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="38"/>
       <c r="B22" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
@@ -3641,13 +3646,13 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="38"/>
       <c r="B23" s="50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="61">
         <v>44476</v>
@@ -3715,19 +3720,24 @@
       <c r="BL23" s="24"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A24" s="38"/>
+      <c r="B24" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="61">
+        <v>44476</v>
+      </c>
+      <c r="F24" s="61">
+        <v>44484</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -3785,18 +3795,96 @@
       <c r="BK24" s="24"/>
       <c r="BL24" s="24"/>
     </row>
-    <row r="25" spans="1:64" ht="30" customHeight="1">
-      <c r="G25" s="6"/>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="24"/>
+      <c r="AI25" s="24"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="24"/>
+      <c r="AM25" s="24"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
+      <c r="AR25" s="24"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="24"/>
+      <c r="AX25" s="24"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="24"/>
+      <c r="BA25" s="24"/>
+      <c r="BB25" s="24"/>
+      <c r="BC25" s="24"/>
+      <c r="BD25" s="24"/>
+      <c r="BE25" s="24"/>
+      <c r="BF25" s="24"/>
+      <c r="BG25" s="24"/>
+      <c r="BH25" s="24"/>
+      <c r="BI25" s="24"/>
+      <c r="BJ25" s="24"/>
+      <c r="BK25" s="24"/>
+      <c r="BL25" s="24"/>
     </row>
     <row r="26" spans="1:64" ht="30" customHeight="1">
-      <c r="C26" s="11"/>
-      <c r="F26" s="39"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:64" ht="30" customHeight="1">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:64" ht="30" customHeight="1">
+      <c r="C28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AY5:BE5"/>
+    <mergeCell ref="BF5:BL5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B6:G6"/>
@@ -3804,15 +3892,8 @@
     <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="AY5:BE5"/>
-    <mergeCell ref="BF5:BL5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D24">
+  <conditionalFormatting sqref="D8:D25">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3826,12 +3907,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL24">
+  <conditionalFormatting sqref="I6:BL25">
     <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL24">
+  <conditionalFormatting sqref="I8:BL25">
     <cfRule type="expression" dxfId="1" priority="30">
       <formula>AND(début_tâche&lt;=I$6,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$6)</formula>
     </cfRule>
@@ -3898,79 +3979,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
     <row r="2" spans="1:2" s="29" customFormat="1" ht="15.75">
       <c r="A2" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="28"/>
     </row>
     <row r="3" spans="1:2" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:2" s="30" customFormat="1" ht="26.25">
       <c r="A4" s="31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="27" customFormat="1" ht="204.95" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="30" customFormat="1" ht="26.25">
       <c r="A8" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="81" customHeight="1">
       <c r="A9" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="27" customFormat="1" ht="27.95" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="30" customFormat="1" ht="26.25">
       <c r="A11" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33.75" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="27" customFormat="1" ht="27.95" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="30" customFormat="1" ht="26.25">
       <c r="A14" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="81.75" customHeight="1">
       <c r="A15" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90">
       <c r="A16" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
